--- a/01_Input/Local_Counts/018_Merged.xlsx
+++ b/01_Input/Local_Counts/018_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Local_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Local_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7E48A-3EBD-45F1-835D-F6E8236CEF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AFF7E48A-3EBD-45F1-835D-F6E8236CEF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BF46B5-7828-4473-AD7E-905A13BBD164}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,19 +122,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +428,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,8 +475,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45250.3125</v>
+      <c r="A2" s="3">
+        <v>45250.319444444445</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -497,8 +513,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45250.319444444445</v>
+      <c r="A3" s="8">
+        <v>45250.326388888891</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
@@ -535,8 +551,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45250.326388888891</v>
+      <c r="A4" s="8">
+        <v>45250.333333333336</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
@@ -573,8 +589,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45250.333333333336</v>
+      <c r="A5" s="8">
+        <v>45250.340277777781</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -611,8 +627,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45250.340277777781</v>
+      <c r="A6" s="8">
+        <v>45250.347222222219</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -649,8 +665,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45250.347222222219</v>
+      <c r="A7" s="8">
+        <v>45250.354166666664</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -687,8 +703,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45250.354166666664</v>
+      <c r="A8" s="8">
+        <v>45250.361111111109</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -725,8 +741,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45250.361111111109</v>
+      <c r="A9" s="7">
+        <v>45250.368055555555</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -764,74 +780,74 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45392.333333333336</v>
-      </c>
-      <c r="B10" s="5">
+        <v>45392.340277777781</v>
+      </c>
+      <c r="B10" s="4">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>54</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>33</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>47</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>2</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45392.340277777781</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="8">
+        <v>45392.347222222219</v>
+      </c>
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>81</v>
       </c>
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
         <v>30</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>40</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
         <v>2</v>
       </c>
       <c r="L11" s="1">
@@ -839,37 +855,37 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45392.347222222219</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="8">
+        <v>45392.354166666664</v>
+      </c>
+      <c r="B12" s="6">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>71</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>28</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>49</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>2</v>
       </c>
       <c r="L12" s="1">
@@ -877,37 +893,37 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45392.354166666664</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="8">
+        <v>45392.361111111109</v>
+      </c>
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>99</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>37</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>69</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="1">
@@ -915,37 +931,37 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45392.361111111109</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="8">
+        <v>45392.368055555555</v>
+      </c>
+      <c r="B14" s="6">
         <v>14</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>101</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>7</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>48</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>66</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="1">
@@ -953,37 +969,37 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45392.368055555555</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="7">
+        <v>45392.37499971065</v>
+      </c>
+      <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>96</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
         <v>44</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>48</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>3</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6">
         <v>2</v>
       </c>
       <c r="L15" s="1">
@@ -992,74 +1008,74 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45392.666666666664</v>
-      </c>
-      <c r="B16" s="5">
+        <v>45392.673611111109</v>
+      </c>
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>112</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>23</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>55</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45392.673611111109</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="8">
+        <v>45392.680555497682</v>
+      </c>
+      <c r="B17" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>13</v>
       </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>45</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
         <v>1</v>
       </c>
       <c r="L17" s="1">
@@ -1067,37 +1083,37 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45392.680555497682</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="8">
+        <v>45392.687499942127</v>
+      </c>
+      <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>98</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>29</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>51</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>2</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
         <v>3</v>
       </c>
       <c r="L18" s="1">
@@ -1105,37 +1121,37 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45392.687499942127</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="8">
+        <v>45392.694444386572</v>
+      </c>
+      <c r="B19" s="6">
         <v>8</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>91</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>22</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
         <v>54</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -1143,37 +1159,37 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45392.694444386572</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="8">
+        <v>45392.701388831018</v>
+      </c>
+      <c r="B20" s="6">
         <v>8</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>125</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>25</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>47</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>3</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6">
         <v>2</v>
       </c>
       <c r="L20" s="1">
@@ -1181,37 +1197,37 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45392.701388831018</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="A21" s="7">
+        <v>45392.708332986113</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
         <v>150</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>32</v>
       </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>48</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
         <v>2</v>
       </c>
       <c r="L21" s="1">
@@ -1220,7 +1236,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45392.833333333336</v>
+        <v>45392.840277777781</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1257,8 +1273,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>45392.840277777781</v>
+      <c r="A23" s="8">
+        <v>45392.847222222219</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -1295,8 +1311,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45392.847222222219</v>
+      <c r="A24" s="8">
+        <v>45392.854166666664</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1333,8 +1349,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45392.854166666664</v>
+      <c r="A25" s="8">
+        <v>45392.861111111109</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1371,8 +1387,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45392.861111111109</v>
+      <c r="A26" s="8">
+        <v>45392.868055555555</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -1409,8 +1425,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45392.868055555555</v>
+      <c r="A27" s="3">
+        <v>45392.87499971065</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
